--- a/runs/run104/NotionalETEOutput104.xlsx
+++ b/runs/run104/NotionalETEOutput104.xlsx
@@ -49,13 +49,13 @@
     <t>tUp</t>
   </si>
   <si>
-    <t>Missile_SOMERSAULT0_State_Update</t>
+    <t>Missile_HIGHWIND2_State_Update</t>
   </si>
   <si>
-    <t>MISSILE_SOMERSAULT0_482.MISSILE_SOMERSAULT0_482</t>
+    <t>MISSILE_HIGHWIND2_257.MISSILE_HIGHWIND2_257</t>
   </si>
   <si>
-    <t>MISSILE_SOMERSAULT0</t>
+    <t>MISSILE_HIGHWIND2</t>
   </si>
 </sst>
 </file>
@@ -480,10 +480,10 @@
         <v>0</v>
       </c>
       <c r="I2">
-        <v>-1475.304174889689</v>
+        <v>-1540.371116175942</v>
       </c>
       <c r="J2">
-        <v>2036.8428723706</v>
+        <v>1987.323268632524</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -515,13 +515,13 @@
         <v>0</v>
       </c>
       <c r="I3">
-        <v>-1520.712344165892</v>
+        <v>-1427.72985778476</v>
       </c>
       <c r="J3">
-        <v>1940.31458092269</v>
+        <v>1940.143324514278</v>
       </c>
       <c r="K3">
-        <v>298.284849286896</v>
+        <v>292.7981043318732</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -550,13 +550,13 @@
         <v>0</v>
       </c>
       <c r="I4">
-        <v>-1470.661545738668</v>
+        <v>-1461.142211846198</v>
       </c>
       <c r="J4">
-        <v>1847.020001633682</v>
+        <v>1869.15966724575</v>
       </c>
       <c r="K4">
-        <v>605.9596371571055</v>
+        <v>563.9795927495126</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -585,13 +585,13 @@
         <v>0</v>
       </c>
       <c r="I5">
-        <v>-1466.964583340517</v>
+        <v>-1428.04818791186</v>
       </c>
       <c r="J5">
-        <v>1784.093766346347</v>
+        <v>1853.336101149931</v>
       </c>
       <c r="K5">
-        <v>824.7186954256754</v>
+        <v>850.056933494197</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -620,13 +620,13 @@
         <v>0</v>
       </c>
       <c r="I6">
-        <v>-1323.103875184611</v>
+        <v>-1407.070863635287</v>
       </c>
       <c r="J6">
-        <v>1835.873833625954</v>
+        <v>1823.287406846576</v>
       </c>
       <c r="K6">
-        <v>1084.707662591291</v>
+        <v>1156.328067586579</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -655,13 +655,13 @@
         <v>0</v>
       </c>
       <c r="I7">
-        <v>-1278.590306956472</v>
+        <v>-1299.154596549595</v>
       </c>
       <c r="J7">
-        <v>1790.838574828285</v>
+        <v>1763.970414701982</v>
       </c>
       <c r="K7">
-        <v>1405.738296540637</v>
+        <v>1398.40474142351</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -690,13 +690,13 @@
         <v>0</v>
       </c>
       <c r="I8">
-        <v>-1327.637730643646</v>
+        <v>-1282.053142348449</v>
       </c>
       <c r="J8">
-        <v>1637.780864414104</v>
+        <v>1761.591020484832</v>
       </c>
       <c r="K8">
-        <v>1629.274061901691</v>
+        <v>1616.859511447143</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -719,19 +719,19 @@
         <v>0</v>
       </c>
       <c r="G9">
-        <v>-98.05543896516463</v>
+        <v>-103.6571030204628</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>-1257.62851236994</v>
+        <v>-1247.27985396646</v>
       </c>
       <c r="J9">
-        <v>1605.131091333099</v>
+        <v>1742.286836439764</v>
       </c>
       <c r="K9">
-        <v>1725.834876958518</v>
+        <v>1718.592650322607</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -751,22 +751,22 @@
         <v>160.142</v>
       </c>
       <c r="F10">
-        <v>217.6723232204135</v>
+        <v>226.8742619594102</v>
       </c>
       <c r="G10">
-        <v>-85.18567272064172</v>
+        <v>-83.26910109224372</v>
       </c>
       <c r="H10">
-        <v>851.3137218148471</v>
+        <v>822.5842005855608</v>
       </c>
       <c r="I10">
-        <v>-1223.539288793437</v>
+        <v>-1270.383594748566</v>
       </c>
       <c r="J10">
-        <v>1679.919567817573</v>
+        <v>1592.720194541627</v>
       </c>
       <c r="K10">
-        <v>2034.535181182227</v>
+        <v>2050.542184685374</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -786,22 +786,22 @@
         <v>161.142</v>
       </c>
       <c r="F11">
-        <v>164.4266967665873</v>
+        <v>167.8205344656384</v>
       </c>
       <c r="G11">
-        <v>-69.86178922030003</v>
+        <v>-67.56360222299709</v>
       </c>
       <c r="H11">
-        <v>1078.033890416887</v>
+        <v>1016.570789683747</v>
       </c>
       <c r="I11">
-        <v>-1165.475498199381</v>
+        <v>-1213.473404545854</v>
       </c>
       <c r="J11">
-        <v>1539.936560440251</v>
+        <v>1510.671363469116</v>
       </c>
       <c r="K11">
-        <v>2134.682904855606</v>
+        <v>2265.769227858675</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -821,22 +821,22 @@
         <v>162.142</v>
       </c>
       <c r="F12">
-        <v>137.4284799976766</v>
+        <v>145.5740405459348</v>
       </c>
       <c r="G12">
-        <v>-47.94795586272057</v>
+        <v>-48.47545460409562</v>
       </c>
       <c r="H12">
-        <v>1136.363809320362</v>
+        <v>1221.001077798609</v>
       </c>
       <c r="I12">
-        <v>-1123.980979857587</v>
+        <v>-1136.913650330495</v>
       </c>
       <c r="J12">
-        <v>1467.560041451114</v>
+        <v>1581.370686798125</v>
       </c>
       <c r="K12">
-        <v>2325.734825849802</v>
+        <v>2240.55095473464</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -856,22 +856,22 @@
         <v>163.142</v>
       </c>
       <c r="F13">
-        <v>125.0286425932356</v>
+        <v>126.7163736285015</v>
       </c>
       <c r="G13">
-        <v>-34.34419695633668</v>
+        <v>-32.58530443382238</v>
       </c>
       <c r="H13">
-        <v>1282.958044624367</v>
+        <v>1262.545018450858</v>
       </c>
       <c r="I13">
-        <v>-1099.782443696208</v>
+        <v>-1102.237396220496</v>
       </c>
       <c r="J13">
-        <v>1533.213252013873</v>
+        <v>1528.126916550424</v>
       </c>
       <c r="K13">
-        <v>2595.365543114968</v>
+        <v>2416.327602796827</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -891,22 +891,22 @@
         <v>164.142</v>
       </c>
       <c r="F14">
-        <v>106.3358446170153</v>
+        <v>106.2638337299577</v>
       </c>
       <c r="G14">
-        <v>-17.01028626424089</v>
+        <v>-17.24451068817325</v>
       </c>
       <c r="H14">
-        <v>1346.044394610532</v>
+        <v>1316.575460418617</v>
       </c>
       <c r="I14">
-        <v>-1038.121571460824</v>
+        <v>-1062.920678555222</v>
       </c>
       <c r="J14">
-        <v>1370.252747968661</v>
+        <v>1353.085658943157</v>
       </c>
       <c r="K14">
-        <v>2758.458921505737</v>
+        <v>2565.561834403918</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -926,22 +926,22 @@
         <v>165.142</v>
       </c>
       <c r="F15">
-        <v>101.4684722417461</v>
+        <v>99.75607994108422</v>
       </c>
       <c r="G15">
-        <v>-0.9372986779332025</v>
+        <v>-0.9065634032478416</v>
       </c>
       <c r="H15">
-        <v>1327.651250147007</v>
+        <v>1318.856567891795</v>
       </c>
       <c r="I15">
-        <v>-1005.595660952031</v>
+        <v>-1074.440844455201</v>
       </c>
       <c r="J15">
-        <v>1309.075637389437</v>
+        <v>1340.310971546329</v>
       </c>
       <c r="K15">
-        <v>2889.045738340174</v>
+        <v>2779.212352449892</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -961,22 +961,22 @@
         <v>166.142</v>
       </c>
       <c r="F16">
-        <v>90.72137394530947</v>
+        <v>97.09696943305657</v>
       </c>
       <c r="G16">
-        <v>15.25259406456278</v>
+        <v>15.10869517820285</v>
       </c>
       <c r="H16">
-        <v>1370.463113663635</v>
+        <v>1419.443520523026</v>
       </c>
       <c r="I16">
-        <v>-971.1496963394386</v>
+        <v>-997.632926647584</v>
       </c>
       <c r="J16">
-        <v>1345.169206034031</v>
+        <v>1281.746864859244</v>
       </c>
       <c r="K16">
-        <v>2925.970068989109</v>
+        <v>2954.954386364542</v>
       </c>
     </row>
     <row r="17" spans="1:11">
@@ -996,22 +996,22 @@
         <v>167.142</v>
       </c>
       <c r="F17">
-        <v>89.87087802906143</v>
+        <v>86.4190699193482</v>
       </c>
       <c r="G17">
-        <v>32.80859646477789</v>
+        <v>32.50362459444148</v>
       </c>
       <c r="H17">
-        <v>1522.337339026519</v>
+        <v>1468.293762735948</v>
       </c>
       <c r="I17">
-        <v>-985.3892904080662</v>
+        <v>-966.6492585780111</v>
       </c>
       <c r="J17">
-        <v>1213.516305643657</v>
+        <v>1300.947691204152</v>
       </c>
       <c r="K17">
-        <v>3069.179501963361</v>
+        <v>3047.589574331703</v>
       </c>
     </row>
     <row r="18" spans="1:11">
@@ -1031,22 +1031,22 @@
         <v>168.142</v>
       </c>
       <c r="F18">
-        <v>81.29848179227828</v>
+        <v>82.98092415992456</v>
       </c>
       <c r="G18">
-        <v>48.20033171262895</v>
+        <v>49.03631221311654</v>
       </c>
       <c r="H18">
-        <v>1465.895143281504</v>
+        <v>1472.883413895277</v>
       </c>
       <c r="I18">
-        <v>-944.9818475437104</v>
+        <v>-891.1194426877003</v>
       </c>
       <c r="J18">
-        <v>1224.340849466564</v>
+        <v>1183.537830155653</v>
       </c>
       <c r="K18">
-        <v>2927.157988271504</v>
+        <v>2930.450585829179</v>
       </c>
     </row>
     <row r="19" spans="1:11">
@@ -1066,22 +1066,22 @@
         <v>169.142</v>
       </c>
       <c r="F19">
-        <v>76.92591812189333</v>
+        <v>76.27139884825787</v>
       </c>
       <c r="G19">
-        <v>67.24559962494104</v>
+        <v>62.37485213285012</v>
       </c>
       <c r="H19">
-        <v>1531.005101512048</v>
+        <v>1595.657600073477</v>
       </c>
       <c r="I19">
-        <v>-852.8948940492196</v>
+        <v>-919.9803392430986</v>
       </c>
       <c r="J19">
-        <v>1159.823454478571</v>
+        <v>1209.797201563289</v>
       </c>
       <c r="K19">
-        <v>2968.185800309642</v>
+        <v>3181.220124456287</v>
       </c>
     </row>
     <row r="20" spans="1:11">
@@ -1101,22 +1101,22 @@
         <v>170.142</v>
       </c>
       <c r="F20">
-        <v>74.1145219068289</v>
+        <v>74.66040587384789</v>
       </c>
       <c r="G20">
-        <v>85.04714163460395</v>
+        <v>84.09159014438849</v>
       </c>
       <c r="H20">
-        <v>1594.272388254217</v>
+        <v>1552.354043966943</v>
       </c>
       <c r="I20">
-        <v>-858.4910283070005</v>
+        <v>-879.9958343494811</v>
       </c>
       <c r="J20">
-        <v>1141.049851325059</v>
+        <v>1140.271959066884</v>
       </c>
       <c r="K20">
-        <v>3072.97414510406</v>
+        <v>3059.898882403894</v>
       </c>
     </row>
     <row r="21" spans="1:11">
@@ -1136,22 +1136,22 @@
         <v>171.142</v>
       </c>
       <c r="F21">
-        <v>72.64732397117383</v>
+        <v>72.59514612476872</v>
       </c>
       <c r="G21">
-        <v>98.50226529366822</v>
+        <v>97.06974409177687</v>
       </c>
       <c r="H21">
-        <v>1600.10956303325</v>
+        <v>1530.192746639043</v>
       </c>
       <c r="I21">
-        <v>-804.7327466146038</v>
+        <v>-803.6350999650399</v>
       </c>
       <c r="J21">
-        <v>1128.48934773497</v>
+        <v>1074.549996463916</v>
       </c>
       <c r="K21">
-        <v>3232.541817926722</v>
+        <v>3251.870404870352</v>
       </c>
     </row>
     <row r="22" spans="1:11">
@@ -1171,22 +1171,22 @@
         <v>172.142</v>
       </c>
       <c r="F22">
-        <v>68.51131509825488</v>
+        <v>68.73764141749872</v>
       </c>
       <c r="G22">
-        <v>115.0181478882449</v>
+        <v>111.2932016125996</v>
       </c>
       <c r="H22">
-        <v>1536.161770522352</v>
+        <v>1596.700683196589</v>
       </c>
       <c r="I22">
-        <v>-729.0029080532987</v>
+        <v>-726.8809008092899</v>
       </c>
       <c r="J22">
-        <v>992.1243494567105</v>
+        <v>1070.254280586766</v>
       </c>
       <c r="K22">
-        <v>3064.502489674304</v>
+        <v>3249.013997326343</v>
       </c>
     </row>
     <row r="23" spans="1:11">
@@ -1206,22 +1206,22 @@
         <v>173.142</v>
       </c>
       <c r="F23">
-        <v>66.84422648097295</v>
+        <v>66.93285380862794</v>
       </c>
       <c r="G23">
-        <v>133.6717397164013</v>
+        <v>132.8256429689035</v>
       </c>
       <c r="H23">
-        <v>1660.437824162484</v>
+        <v>1686.958621047669</v>
       </c>
       <c r="I23">
-        <v>-724.5000982790749</v>
+        <v>-687.4734356635333</v>
       </c>
       <c r="J23">
-        <v>962.5878735987704</v>
+        <v>1010.895807055092</v>
       </c>
       <c r="K23">
-        <v>3170.727711667781</v>
+        <v>3141.971562596937</v>
       </c>
     </row>
     <row r="24" spans="1:11">
@@ -1241,22 +1241,22 @@
         <v>174.142</v>
       </c>
       <c r="F24">
-        <v>64.98685814970911</v>
+        <v>60.46726345201604</v>
       </c>
       <c r="G24">
-        <v>147.0666751304913</v>
+        <v>154.3512421213449</v>
       </c>
       <c r="H24">
-        <v>1636.79849666767</v>
+        <v>1688.612477229796</v>
       </c>
       <c r="I24">
-        <v>-664.002690429042</v>
+        <v>-669.6349307674051</v>
       </c>
       <c r="J24">
-        <v>928.2511438755407</v>
+        <v>975.6278316762374</v>
       </c>
       <c r="K24">
-        <v>3051.82328743038</v>
+        <v>3139.579282640083</v>
       </c>
     </row>
     <row r="25" spans="1:11">
@@ -1276,22 +1276,22 @@
         <v>175.142</v>
       </c>
       <c r="F25">
-        <v>60.35996956849863</v>
+        <v>61.87773776307116</v>
       </c>
       <c r="G25">
-        <v>168.2013643215027</v>
+        <v>163.0139655536327</v>
       </c>
       <c r="H25">
-        <v>1629.596467793742</v>
+        <v>1694.924759827956</v>
       </c>
       <c r="I25">
-        <v>-572.4322529913907</v>
+        <v>-627.4112499942167</v>
       </c>
       <c r="J25">
-        <v>840.2888962146085</v>
+        <v>864.4636429591727</v>
       </c>
       <c r="K25">
-        <v>3249.627807329362</v>
+        <v>3269.683512290811</v>
       </c>
     </row>
     <row r="26" spans="1:11">
@@ -1311,22 +1311,22 @@
         <v>176.142</v>
       </c>
       <c r="F26">
-        <v>60.25923833293368</v>
+        <v>61.73634476928827</v>
       </c>
       <c r="G26">
-        <v>181.5643325244308</v>
+        <v>186.6489324846834</v>
       </c>
       <c r="H26">
-        <v>1723.884915752051</v>
+        <v>1639.304379308366</v>
       </c>
       <c r="I26">
-        <v>-541.7164110090605</v>
+        <v>-529.4797514983395</v>
       </c>
       <c r="J26">
-        <v>836.6468440305944</v>
+        <v>872.9689305343658</v>
       </c>
       <c r="K26">
-        <v>3023.325668365974</v>
+        <v>3077.905387198616</v>
       </c>
     </row>
     <row r="27" spans="1:11">
@@ -1346,22 +1346,22 @@
         <v>177.142</v>
       </c>
       <c r="F27">
-        <v>56.98202594793013</v>
+        <v>56.31990360777799</v>
       </c>
       <c r="G27">
-        <v>204.9838204973681</v>
+        <v>196.6083583608793</v>
       </c>
       <c r="H27">
-        <v>1636.7520411384</v>
+        <v>1731.066908714377</v>
       </c>
       <c r="I27">
-        <v>-478.4269733079693</v>
+        <v>-504.6664551635147</v>
       </c>
       <c r="J27">
-        <v>779.376783086215</v>
+        <v>818.6397258779948</v>
       </c>
       <c r="K27">
-        <v>3009.446023538197</v>
+        <v>3128.513589543229</v>
       </c>
     </row>
     <row r="28" spans="1:11">
@@ -1381,22 +1381,22 @@
         <v>178.142</v>
       </c>
       <c r="F28">
-        <v>54.73632820548814</v>
+        <v>57.5875221837784</v>
       </c>
       <c r="G28">
-        <v>207.0089234892161</v>
+        <v>212.2201843671336</v>
       </c>
       <c r="H28">
-        <v>1658.627040527392</v>
+        <v>1727.323621803672</v>
       </c>
       <c r="I28">
-        <v>-458.3700620258086</v>
+        <v>-451.5100503642362</v>
       </c>
       <c r="J28">
-        <v>702.3655365456257</v>
+        <v>714.8546170255884</v>
       </c>
       <c r="K28">
-        <v>3023.926235704318</v>
+        <v>2885.607509857178</v>
       </c>
     </row>
     <row r="29" spans="1:11">
@@ -1416,22 +1416,22 @@
         <v>179.142</v>
       </c>
       <c r="F29">
-        <v>57.66025003336618</v>
+        <v>52.75554485037577</v>
       </c>
       <c r="G29">
-        <v>241.0090977744064</v>
+        <v>239.3042871784799</v>
       </c>
       <c r="H29">
-        <v>1719.159930710342</v>
+        <v>1689.748404285657</v>
       </c>
       <c r="I29">
-        <v>-365.4696001408398</v>
+        <v>-386.1380141646276</v>
       </c>
       <c r="J29">
-        <v>680.0263987501271</v>
+        <v>688.9565668314036</v>
       </c>
       <c r="K29">
-        <v>2841.194273815115</v>
+        <v>2746.461223670952</v>
       </c>
     </row>
     <row r="30" spans="1:11">
@@ -1451,22 +1451,22 @@
         <v>180.142</v>
       </c>
       <c r="F30">
-        <v>54.80743766223765</v>
+        <v>51.60011017408681</v>
       </c>
       <c r="G30">
-        <v>245.0175594101568</v>
+        <v>258.3664804191807</v>
       </c>
       <c r="H30">
-        <v>1778.199747719112</v>
+        <v>1827.999350980136</v>
       </c>
       <c r="I30">
-        <v>-323.0811336829585</v>
+        <v>-330.1408349754944</v>
       </c>
       <c r="J30">
-        <v>650.0949981078484</v>
+        <v>622.0882708656138</v>
       </c>
       <c r="K30">
-        <v>2883.197913336502</v>
+        <v>2834.960617941384</v>
       </c>
     </row>
     <row r="31" spans="1:11">
@@ -1486,22 +1486,22 @@
         <v>181.142</v>
       </c>
       <c r="F31">
-        <v>55.01701601314185</v>
+        <v>52.38087465115232</v>
       </c>
       <c r="G31">
-        <v>269.4143348588325</v>
+        <v>262.8561827612547</v>
       </c>
       <c r="H31">
-        <v>1746.139895782243</v>
+        <v>1737.589063926269</v>
       </c>
       <c r="I31">
-        <v>-269.486411790875</v>
+        <v>-274.9888506242777</v>
       </c>
       <c r="J31">
-        <v>609.6852879833169</v>
+        <v>565.3830003683028</v>
       </c>
       <c r="K31">
-        <v>2774.699477198116</v>
+        <v>2703.208757254205</v>
       </c>
     </row>
     <row r="32" spans="1:11">
@@ -1521,22 +1521,22 @@
         <v>182.142</v>
       </c>
       <c r="F32">
-        <v>53.68915617387905</v>
+        <v>50.6714235146389</v>
       </c>
       <c r="G32">
-        <v>277.3021081778471</v>
+        <v>270.6149257945022</v>
       </c>
       <c r="H32">
-        <v>1734.042569786029</v>
+        <v>1767.690489964274</v>
       </c>
       <c r="I32">
-        <v>-199.9297527123283</v>
+        <v>-208.1306716932935</v>
       </c>
       <c r="J32">
-        <v>557.7749779743576</v>
+        <v>516.1177712079357</v>
       </c>
       <c r="K32">
-        <v>2444.258321091632</v>
+        <v>2614.426254205045</v>
       </c>
     </row>
     <row r="33" spans="1:11">
@@ -1556,22 +1556,22 @@
         <v>183.142</v>
       </c>
       <c r="F33">
-        <v>50.52626335085284</v>
+        <v>50.5040336596055</v>
       </c>
       <c r="G33">
-        <v>295.4153559162812</v>
+        <v>287.1909749515144</v>
       </c>
       <c r="H33">
-        <v>1775.284159845933</v>
+        <v>1847.323756686384</v>
       </c>
       <c r="I33">
-        <v>-141.5650224938338</v>
+        <v>-152.526362565262</v>
       </c>
       <c r="J33">
-        <v>473.6285955589201</v>
+        <v>477.1487301926086</v>
       </c>
       <c r="K33">
-        <v>2288.203850238841</v>
+        <v>2427.495953658859</v>
       </c>
     </row>
     <row r="34" spans="1:11">
@@ -1591,22 +1591,22 @@
         <v>184.142</v>
       </c>
       <c r="F34">
-        <v>50.21108796934718</v>
+        <v>50.8751817980332</v>
       </c>
       <c r="G34">
-        <v>303.6156182841049</v>
+        <v>316.0316284920723</v>
       </c>
       <c r="H34">
-        <v>1815.478534535103</v>
+        <v>1855.001768314956</v>
       </c>
       <c r="I34">
-        <v>-80.23707023745581</v>
+        <v>-81.59066010100641</v>
       </c>
       <c r="J34">
-        <v>460.2244232831891</v>
+        <v>447.5611447139118</v>
       </c>
       <c r="K34">
-        <v>2180.476231882115</v>
+        <v>2286.958270396319</v>
       </c>
     </row>
     <row r="35" spans="1:11">
@@ -1626,22 +1626,22 @@
         <v>185.142</v>
       </c>
       <c r="F35">
-        <v>47.27401703065566</v>
+        <v>48.95173226788347</v>
       </c>
       <c r="G35">
-        <v>339.651044093263</v>
+        <v>321.3910065417339</v>
       </c>
       <c r="H35">
-        <v>1735.86529762136</v>
+        <v>1899.179587608978</v>
       </c>
       <c r="I35">
-        <v>-17.81010770636841</v>
+        <v>-19.43810982035836</v>
       </c>
       <c r="J35">
-        <v>405.0048339308354</v>
+        <v>381.1993903111787</v>
       </c>
       <c r="K35">
-        <v>2008.645085706208</v>
+        <v>1930.055090038437</v>
       </c>
     </row>
     <row r="36" spans="1:11">
@@ -1661,22 +1661,22 @@
         <v>186.142</v>
       </c>
       <c r="F36">
-        <v>46.11467664871416</v>
+        <v>49.12999454941277</v>
       </c>
       <c r="G36">
-        <v>357.3263759595417</v>
+        <v>354.2912935135184</v>
       </c>
       <c r="H36">
-        <v>1914.414218215755</v>
+        <v>1864.751446989758</v>
       </c>
       <c r="I36">
-        <v>47.17419714496563</v>
+        <v>48.01832621348505</v>
       </c>
       <c r="J36">
-        <v>359.8182373497538</v>
+        <v>345.3979078471734</v>
       </c>
       <c r="K36">
-        <v>1865.476939667335</v>
+        <v>1830.077131956133</v>
       </c>
     </row>
     <row r="37" spans="1:11">
@@ -1696,22 +1696,22 @@
         <v>187.142</v>
       </c>
       <c r="F37">
-        <v>45.35030891130445</v>
+        <v>48.55914193013312</v>
       </c>
       <c r="G37">
-        <v>370.9237752275639</v>
+        <v>369.2538219230572</v>
       </c>
       <c r="H37">
-        <v>1834.895570312811</v>
+        <v>1797.155674169326</v>
       </c>
       <c r="I37">
-        <v>111.9948939135558</v>
+        <v>111.5245166159359</v>
       </c>
       <c r="J37">
-        <v>306.6822498338792</v>
+        <v>305.655607299457</v>
       </c>
       <c r="K37">
-        <v>1656.695748258352</v>
+        <v>1567.380285327613</v>
       </c>
     </row>
     <row r="38" spans="1:11">
@@ -1731,22 +1731,22 @@
         <v>188.142</v>
       </c>
       <c r="F38">
-        <v>43.7203399818335</v>
+        <v>47.54756932881908</v>
       </c>
       <c r="G38">
-        <v>362.1729900852018</v>
+        <v>377.0692827301916</v>
       </c>
       <c r="H38">
-        <v>1895.884078235641</v>
+        <v>1840.606964328527</v>
       </c>
       <c r="I38">
-        <v>191.0427973576642</v>
+        <v>190.6389364672452</v>
       </c>
       <c r="J38">
-        <v>242.2371162469619</v>
+        <v>249.7237046941532</v>
       </c>
       <c r="K38">
-        <v>1344.351078858252</v>
+        <v>1430.971185319495</v>
       </c>
     </row>
     <row r="39" spans="1:11">
@@ -1766,22 +1766,22 @@
         <v>189.142</v>
       </c>
       <c r="F39">
-        <v>46.04125070505904</v>
+        <v>44.43541762178634</v>
       </c>
       <c r="G39">
-        <v>383.2451539694661</v>
+        <v>401.6249240817195</v>
       </c>
       <c r="H39">
-        <v>1770.541196994448</v>
+        <v>1955.289733880646</v>
       </c>
       <c r="I39">
-        <v>254.174152083793</v>
+        <v>249.5580667897594</v>
       </c>
       <c r="J39">
-        <v>191.3503196738395</v>
+        <v>205.4014334468893</v>
       </c>
       <c r="K39">
-        <v>1129.991080815665</v>
+        <v>1160.89634348192</v>
       </c>
     </row>
     <row r="40" spans="1:11">
@@ -1801,22 +1801,22 @@
         <v>190.142</v>
       </c>
       <c r="F40">
-        <v>42.5736945530783</v>
+        <v>45.86533405608217</v>
       </c>
       <c r="G40">
-        <v>418.8490367321544</v>
+        <v>431.2062343277252</v>
       </c>
       <c r="H40">
-        <v>1862.082490575201</v>
+        <v>1810.238041770957</v>
       </c>
       <c r="I40">
-        <v>317.0078301114139</v>
+        <v>314.6595693324469</v>
       </c>
       <c r="J40">
-        <v>147.1396366511086</v>
+        <v>144.3183963343394</v>
       </c>
       <c r="K40">
-        <v>923.4314744219424</v>
+        <v>919.2471622442024</v>
       </c>
     </row>
     <row r="41" spans="1:11">
@@ -1836,22 +1836,22 @@
         <v>191.142</v>
       </c>
       <c r="F41">
-        <v>45.125668952688</v>
+        <v>43.15682826940872</v>
       </c>
       <c r="G41">
-        <v>430.3528711216399</v>
+        <v>434.1669731872181</v>
       </c>
       <c r="H41">
-        <v>1788.640037153232</v>
+        <v>1963.029008901078</v>
       </c>
       <c r="I41">
-        <v>414.9882220284719</v>
+        <v>402.4150103320721</v>
       </c>
       <c r="J41">
-        <v>107.448055187404</v>
+        <v>99.87350807980445</v>
       </c>
       <c r="K41">
-        <v>650.0076545149112</v>
+        <v>630.0680697005771</v>
       </c>
     </row>
     <row r="42" spans="1:11">
@@ -1871,22 +1871,22 @@
         <v>192.142</v>
       </c>
       <c r="F42">
-        <v>41.52744903840959</v>
+        <v>41.71352314887783</v>
       </c>
       <c r="G42">
-        <v>459.0218410591445</v>
+        <v>440.2413519147379</v>
       </c>
       <c r="H42">
-        <v>1879.835720025094</v>
+        <v>1827.146751000311</v>
       </c>
       <c r="I42">
-        <v>484.2280279684666</v>
+        <v>502.8496771315272</v>
       </c>
       <c r="J42">
-        <v>55.3783747083742</v>
+        <v>55.71081636005537</v>
       </c>
       <c r="K42">
-        <v>337.1919450051076</v>
+        <v>347.9636164890861</v>
       </c>
     </row>
     <row r="43" spans="1:11">
@@ -1906,22 +1906,22 @@
         <v>193.142</v>
       </c>
       <c r="F43">
-        <v>40.70815867701642</v>
+        <v>43.39960797819906</v>
       </c>
       <c r="G43">
-        <v>450.0710412376081</v>
+        <v>476.4210103211857</v>
       </c>
       <c r="H43">
-        <v>1843.801180205629</v>
+        <v>1947.930737182874</v>
       </c>
       <c r="I43">
-        <v>545.4684281208545</v>
+        <v>570.6307713507757</v>
       </c>
       <c r="J43">
-        <v>5.501551488141525</v>
+        <v>5.180767669216792</v>
       </c>
       <c r="K43">
-        <v>34.39692099383769</v>
+        <v>33.1793600105753</v>
       </c>
     </row>
     <row r="44" spans="1:11">
@@ -1941,22 +1941,22 @@
         <v>194.142</v>
       </c>
       <c r="F44">
-        <v>39.57279642204218</v>
+        <v>42.36512058770117</v>
       </c>
       <c r="G44">
-        <v>496.9337997960909</v>
+        <v>496.9395162257904</v>
       </c>
       <c r="H44">
-        <v>1995.602769471089</v>
+        <v>1965.264801763915</v>
       </c>
       <c r="I44">
-        <v>647.876197549803</v>
+        <v>627.6188939840659</v>
       </c>
       <c r="J44">
-        <v>-41.93456692951764</v>
+        <v>-44.25040037775749</v>
       </c>
       <c r="K44">
-        <v>-295.0787300338201</v>
+        <v>-281.0704280181285</v>
       </c>
     </row>
     <row r="45" spans="1:11">
@@ -1976,22 +1976,22 @@
         <v>195.142</v>
       </c>
       <c r="F45">
-        <v>41.59050495288606</v>
+        <v>39.57316331328533</v>
       </c>
       <c r="G45">
-        <v>490.1888481059129</v>
+        <v>478.9272748381105</v>
       </c>
       <c r="H45">
-        <v>1980.578386687831</v>
+        <v>1943.159751906493</v>
       </c>
       <c r="I45">
-        <v>732.4098345414147</v>
+        <v>693.3453646551501</v>
       </c>
       <c r="J45">
-        <v>-94.96620735208219</v>
+        <v>-88.61266808954748</v>
       </c>
       <c r="K45">
-        <v>-604.3234906607279</v>
+        <v>-645.2313024189061</v>
       </c>
     </row>
     <row r="46" spans="1:11">
@@ -2011,22 +2011,22 @@
         <v>196.142</v>
       </c>
       <c r="F46">
-        <v>41.28076070266695</v>
+        <v>42.16148297717195</v>
       </c>
       <c r="G46">
-        <v>535.4595790874785</v>
+        <v>522.9832865892463</v>
       </c>
       <c r="H46">
-        <v>1838.976694609755</v>
+        <v>1935.331008626881</v>
       </c>
       <c r="I46">
-        <v>821.7318356421295</v>
+        <v>768.5048900627934</v>
       </c>
       <c r="J46">
-        <v>-144.4326884431813</v>
+        <v>-139.6023889782491</v>
       </c>
       <c r="K46">
-        <v>-989.0800510180951</v>
+        <v>-921.0436970510463</v>
       </c>
     </row>
     <row r="47" spans="1:11">
@@ -2046,22 +2046,22 @@
         <v>197.142</v>
       </c>
       <c r="F47">
-        <v>40.26159797530195</v>
+        <v>40.14894760881118</v>
       </c>
       <c r="G47">
-        <v>507.6960819434509</v>
+        <v>502.6119904277154</v>
       </c>
       <c r="H47">
-        <v>1948.074948378089</v>
+        <v>2015.520083410797</v>
       </c>
       <c r="I47">
-        <v>881.2816994447275</v>
+        <v>857.4458263886943</v>
       </c>
       <c r="J47">
-        <v>-179.9548182234212</v>
+        <v>-182.0283278502418</v>
       </c>
       <c r="K47">
-        <v>-1328.554266013635</v>
+        <v>-1344.88757917183</v>
       </c>
     </row>
     <row r="48" spans="1:11">
@@ -2081,22 +2081,22 @@
         <v>198.142</v>
       </c>
       <c r="F48">
-        <v>39.43404747725002</v>
+        <v>39.03763218868459</v>
       </c>
       <c r="G48">
-        <v>564.6948707122998</v>
+        <v>535.050503240881</v>
       </c>
       <c r="H48">
-        <v>1925.095627854261</v>
+        <v>2016.525472939875</v>
       </c>
       <c r="I48">
-        <v>968.0541080911465</v>
+        <v>997.3368937113352</v>
       </c>
       <c r="J48">
-        <v>-228.242401924573</v>
+        <v>-226.8425379612587</v>
       </c>
       <c r="K48">
-        <v>-1695.464630742582</v>
+        <v>-1669.398566363458</v>
       </c>
     </row>
     <row r="49" spans="1:11">
@@ -2116,22 +2116,22 @@
         <v>199.142</v>
       </c>
       <c r="F49">
-        <v>38.06227801231341</v>
+        <v>38.4130040635358</v>
       </c>
       <c r="G49">
-        <v>537.447265438376</v>
+        <v>544.3417370044936</v>
       </c>
       <c r="H49">
-        <v>1891.981072789001</v>
+        <v>1905.40513665173</v>
       </c>
       <c r="I49">
-        <v>1058.681501271249</v>
+        <v>1101.647721185294</v>
       </c>
       <c r="J49">
-        <v>-291.1195115902624</v>
+        <v>-276.2120217094855</v>
       </c>
       <c r="K49">
-        <v>-2133.618320904263</v>
+        <v>-2182.853919053084</v>
       </c>
     </row>
     <row r="50" spans="1:11">
@@ -2151,22 +2151,22 @@
         <v>200.142</v>
       </c>
       <c r="F50">
-        <v>36.77323594237002</v>
+        <v>38.95219343855784</v>
       </c>
       <c r="G50">
-        <v>597.4154965730239</v>
+        <v>592.8477941088045</v>
       </c>
       <c r="H50">
-        <v>1895.319395403416</v>
+        <v>1920.604548726774</v>
       </c>
       <c r="I50">
-        <v>1187.472040704875</v>
+        <v>1106.13788376469</v>
       </c>
       <c r="J50">
-        <v>-338.3511826321118</v>
+        <v>-344.1399774373456</v>
       </c>
       <c r="K50">
-        <v>-2601.177794159685</v>
+        <v>-2410.118333674754</v>
       </c>
     </row>
     <row r="51" spans="1:11">
@@ -2186,22 +2186,22 @@
         <v>201.142</v>
       </c>
       <c r="F51">
-        <v>38.46431328147771</v>
+        <v>36.28786502571384</v>
       </c>
       <c r="G51">
-        <v>584.9092895929596</v>
+        <v>588.0219122395018</v>
       </c>
       <c r="H51">
-        <v>1884.561257851112</v>
+        <v>1963.293960045517</v>
       </c>
       <c r="I51">
-        <v>1221.433095562921</v>
+        <v>1280.487901609503</v>
       </c>
       <c r="J51">
-        <v>-366.9244366046647</v>
+        <v>-386.5971981498361</v>
       </c>
       <c r="K51">
-        <v>-3007.876159423965</v>
+        <v>-2839.783195426493</v>
       </c>
     </row>
     <row r="52" spans="1:11">
@@ -2221,22 +2221,22 @@
         <v>202.142</v>
       </c>
       <c r="F52">
-        <v>39.16120953709738</v>
+        <v>36.63665256948213</v>
       </c>
       <c r="G52">
-        <v>616.891522395602</v>
+        <v>628.1509648275967</v>
       </c>
       <c r="H52">
-        <v>1991.312163043807</v>
+        <v>1872.838636325675</v>
       </c>
       <c r="I52">
-        <v>1293.804536424529</v>
+        <v>1343.5227447378</v>
       </c>
       <c r="J52">
-        <v>-441.7189225488513</v>
+        <v>-447.9461889559533</v>
       </c>
       <c r="K52">
-        <v>-3208.61320785264</v>
+        <v>-3458.79824268017</v>
       </c>
     </row>
     <row r="53" spans="1:11">
@@ -2256,22 +2256,22 @@
         <v>203.142</v>
       </c>
       <c r="F53">
-        <v>35.99900989967411</v>
+        <v>38.91214630484514</v>
       </c>
       <c r="G53">
-        <v>602.7240571289217</v>
+        <v>657.4746050714376</v>
       </c>
       <c r="H53">
-        <v>1990.647703258992</v>
+        <v>2048.418708348393</v>
       </c>
       <c r="I53">
-        <v>1451.794780780247</v>
+        <v>1480.886210917204</v>
       </c>
       <c r="J53">
-        <v>-472.434200932562</v>
+        <v>-501.3696432741395</v>
       </c>
       <c r="K53">
-        <v>-3928.835705619089</v>
+        <v>-3979.402200603061</v>
       </c>
     </row>
     <row r="54" spans="1:11">
@@ -2291,22 +2291,22 @@
         <v>204.142</v>
       </c>
       <c r="F54">
-        <v>35.87985667133223</v>
+        <v>38.1007955314577</v>
       </c>
       <c r="G54">
-        <v>659.7943531125965</v>
+        <v>638.930258252101</v>
       </c>
       <c r="H54">
-        <v>2081.598339608607</v>
+        <v>1909.682011547274</v>
       </c>
       <c r="I54">
-        <v>1628.67407788701</v>
+        <v>1552.617838800919</v>
       </c>
       <c r="J54">
-        <v>-526.6602400101486</v>
+        <v>-511.7605397308056</v>
       </c>
       <c r="K54">
-        <v>-4470.992201062028</v>
+        <v>-4445.635851708319</v>
       </c>
     </row>
   </sheetData>
